--- a/IGUS Joint Calculations.xlsx
+++ b/IGUS Joint Calculations.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Desktop\Files\USDA Robot Arm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Desktop\Files\USDA Robot Arm\Ver 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23AC536E-9B20-4EFC-83C7-19DE61E4D721}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5628" xr2:uid="{BB1D5303-45B8-4C1B-B2F8-D1249DC7A439}"/>
   </bookViews>
@@ -601,7 +602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D97AE917-A13D-4490-B5BB-66142405958B}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>

--- a/IGUS Joint Calculations.xlsx
+++ b/IGUS Joint Calculations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Desktop\Files\USDA Robot Arm\Ver 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23AC536E-9B20-4EFC-83C7-19DE61E4D721}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F016DCC-8570-4AC9-A548-B285285ED311}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5628" xr2:uid="{BB1D5303-45B8-4C1B-B2F8-D1249DC7A439}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Igus Joint</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>RLD-50-A-48-ST</t>
+  </si>
+  <si>
+    <t>Max Torque Allowed (N m)</t>
   </si>
 </sst>
 </file>
@@ -138,7 +141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -149,6 +152,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -600,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D97AE917-A13D-4490-B5BB-66142405958B}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -616,9 +623,10 @@
     <col min="6" max="6" width="19.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -643,8 +651,11 @@
       <c r="H1" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="I1" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -671,8 +682,9 @@
       <c r="H2" s="3">
         <v>1.5</v>
       </c>
+      <c r="I2" s="7"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -699,8 +711,9 @@
       <c r="H3" s="3">
         <v>10</v>
       </c>
+      <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -727,8 +740,9 @@
       <c r="H4" s="3">
         <v>30.7</v>
       </c>
+      <c r="I4" s="7"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -755,8 +769,9 @@
       <c r="H5" s="3">
         <v>6.6059999999999999</v>
       </c>
+      <c r="I5" s="7"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -769,6 +784,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>